--- a/DataDrivenFile1.xlsx
+++ b/DataDrivenFile1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B2CA21E-5DB8-4517-A99E-2F32CC4F9F08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B417F3DD-9686-418A-922E-14B5B323F748}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19460" windowHeight="11060" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>SummitPass1</t>
+  </si>
+  <si>
+    <t>sumitIdentity2</t>
+  </si>
+  <si>
+    <t>SummitPass2</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,7 +414,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35"/>

--- a/DataDrivenFile1.xlsx
+++ b/DataDrivenFile1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B417F3DD-9686-418A-922E-14B5B323F748}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8DB765E5-BED8-4F85-96CD-99EA3A1BD071}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{958CC76F-C632-4C73-9EC4-A914EC67275E}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19440" windowHeight="11060" xr2:uid="{3DB6F224-9113-4AFA-924C-70FA86A20B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -23,22 +29,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>sumitIdentity1</t>
-  </si>
-  <si>
-    <t>SummitPass1</t>
-  </si>
-  <si>
-    <t>sumitIdentity2</t>
-  </si>
-  <si>
-    <t>SummitPass2</t>
+    <t>SumitDeshmukhIDNO1</t>
+  </si>
+  <si>
+    <t>SumitDeshmukhPASSNO1</t>
+  </si>
+  <si>
+    <t>SumitDeshmukhIDNO2</t>
+  </si>
+  <si>
+    <t>SumitDeshmukhPASSNO2</t>
+  </si>
+  <si>
+    <t>SumitDeshmukhIDNO3</t>
+  </si>
+  <si>
+    <t>SumitDeshmukhPASSNO3</t>
   </si>
 </sst>
 </file>
@@ -389,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662682D5-2AA2-4413-A781-D1BE530C218D}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B6D341-4A02-47F9-8158-94C2638CB03B}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,9 +428,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
